--- a/va_facility_data_2025-02-20/Madisonville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Madisonville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Madisonville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Madisonville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3bf706b72d6b429eb28c8be56dcee8e3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra7cc44a9ca7a481e95914e6a4623534e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc02fe909bc0d440c834a2cadf7e58c72"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6ddaaaa5839549c69df10f65e9341836"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R988da56a4f104eb3b241791f0440ad40"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8fe362652eab4ceaabcf5818f0a0fb72"/>
   </x:sheets>
 </x:workbook>
 </file>
